--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Observaciones ITHAI\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\CORRECCION `PORTAL ESTATAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8E121A-E47B-4539-991A-8DFF9BD2F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6FC722-9E51-4DFC-941C-E8BC4E04A322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="Tabla_492871" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$CC$23</definedName>
     <definedName name="Hidden_1_Tabla_4928385">Hidden_1_Tabla_492838!$A$1:$A$2</definedName>
     <definedName name="Hidden_1_Tabla_4928675">Hidden_1_Tabla_492867!$A$1:$A$2</definedName>
     <definedName name="Hidden_1_Tabla_4928685">Hidden_1_Tabla_492868!$A$1:$A$2</definedName>
@@ -51,12 +52,12 @@
     <definedName name="Hidden_862">Hidden_8!$A$1:$A$3</definedName>
     <definedName name="Hidden_969">Hidden_9!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="600">
   <si>
     <t>52273</t>
   </si>
@@ -347,9 +348,6 @@
   </si>
   <si>
     <t>492882</t>
-  </si>
-  <si>
-    <t>Tabla Campos</t>
   </si>
   <si>
     <t>Ejercicio</t>
@@ -422,7 +420,7 @@
     <t>Razón social del contratista o proveedor</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t xml:space="preserve">RFC de la persona física o moral contratista o proveedor </t>
@@ -1093,184 +1091,259 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
+    <t>LPN-ESTATAL-07-2023</t>
+  </si>
+  <si>
+    <t>Adquisicion de bienes informaticos</t>
+  </si>
+  <si>
+    <t>Mastache software, SA de CV</t>
+  </si>
+  <si>
+    <t>MSO211217LR7</t>
+  </si>
+  <si>
+    <t>Montecito</t>
+  </si>
+  <si>
+    <t>piso 7 oficina 13</t>
+  </si>
+  <si>
+    <t>Napoles</t>
+  </si>
+  <si>
+    <t>Benito Juarez</t>
+  </si>
+  <si>
+    <t>Resulta conveniente, la proposición presentada por el convocante Mustache Soft ware, S.A. de C,V, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases,  establecidos en la Convocatoria a la Licitación Pública Nacional con Ingresos Propios No. LPN-ESTATAL-07-2023  para la partida 1 por un monto total  de $445,991.00  con iva incluido y ya que cumplen en costo y beneficio , por lo tanto garantiza el cumplimiento de las obligaciones respectivas en beneficio de la convocante.</t>
+  </si>
+  <si>
+    <t>Secretaría Administrativa</t>
+  </si>
+  <si>
+    <t>Departamentro de adquisición de bienes y servicios</t>
+  </si>
+  <si>
+    <t>23-62</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Transferencia bancaria</t>
+  </si>
+  <si>
+    <t>Ingreso Propio</t>
+  </si>
+  <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>LPN-ESTATAL-03-2023</t>
-  </si>
-  <si>
-    <t>LPN-ESTATAL-02-2023</t>
-  </si>
-  <si>
-    <t>LPN-ESTATAL-04-2023</t>
-  </si>
-  <si>
-    <t>Adquisición de material de limpieza</t>
-  </si>
-  <si>
-    <t>Servicio de Apoyo administrativo, tarducción, fotocopiado e impresión</t>
-  </si>
-  <si>
-    <t>Telecomunicaciones Autonomas Sin Limite, S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>TAS140314DI1</t>
-  </si>
-  <si>
-    <t>juarez</t>
-  </si>
-  <si>
-    <t>Piso 22</t>
-  </si>
-  <si>
-    <t>Oficina 2201-1</t>
-  </si>
-  <si>
-    <t>La Paz</t>
-  </si>
-  <si>
-    <t>Resulta solvente, la proposición presentada por el licitante Telecomunicaciones Autónomas Sin Limite S.A. de C.V., ya que el costo-beneficio de la propuesta técnico-económica de este proveedor establece que las tarifas de tráfico excedente, las otorga sin costo, representando un mayor beneficio para la Convocante, por lo que, cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública Nacional con Ingresos Propios No. LPN-ESTATAL-02-2023 y por lo tanto garantiza el cumplimiento de las obligaciones respectivas</t>
-  </si>
-  <si>
-    <t>Secretaría Administrativa</t>
-  </si>
-  <si>
-    <t>Departamentro de adquisición de biees y servicios</t>
-  </si>
-  <si>
-    <t>23-17</t>
-  </si>
-  <si>
-    <t>Pesos</t>
-  </si>
-  <si>
-    <t>Transferencia bancaria</t>
-  </si>
-  <si>
-    <t>Ingreso Propio</t>
-  </si>
-  <si>
-    <t>Resulta solvente la propuesta presentada por: José Luis Moedano Garnica,  porque cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública y por tanto garantiza el cumplimiento de las obligaciones respectivas</t>
-  </si>
-  <si>
-    <t>Departamentro de adquisición de bienes y servicios</t>
-  </si>
-  <si>
-    <t>Muliproductos de León, S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>MLE120516W7</t>
-  </si>
-  <si>
-    <t>Justino Fernandez</t>
-  </si>
-  <si>
-    <t>Rinconada del sur</t>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato se encuentra en proceso de firmas y la vigencia es del 27/09/2023 al 27/11/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento y abarco los dos bimestres</t>
+  </si>
+  <si>
+    <t>Grupo Hidalguense de Desarrillo, SA de CV</t>
+  </si>
+  <si>
+    <t>GHD9608306BA</t>
+  </si>
+  <si>
+    <t>Franciasco Villa</t>
+  </si>
+  <si>
+    <t>La Loma</t>
   </si>
   <si>
     <t>Pachuca de Soto</t>
   </si>
   <si>
-    <t>Resulta solvente la propuesta presentada por: Multiproductos de León,  porque cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública y por tanto garantiza el cumplimiento de las obligaciones respectivas</t>
-  </si>
-  <si>
-    <t>Servicios escolares</t>
-  </si>
-  <si>
-    <t>Infraestructura</t>
-  </si>
-  <si>
-    <t>23-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato esta vigente  a partir del 24/04/2023 al 31/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Marroquin</t>
+    <t>Resulta conveniente, la proposición presentada por el convocante Grupo Hidalguense de Desarrollo, S.A. de C,V, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en la Convocatoria a la Licitación Pública Nacional con Ingresos Propios No. LPN-ESTATAL-07-2023  para la partida 2 por un monto total  de $106,322.79  con iva incluido y ya que cumplen en costo y beneficio , por lo tanto garantiza el cumplimiento de las obligaciones respectivas en beneficio de la convocante.</t>
+  </si>
+  <si>
+    <t>23-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato esta vigente  a partir del 22/09/2023 al 15/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-08-2023</t>
+  </si>
+  <si>
+    <t>Adquisicion de otros equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que el proceso se declaro decierto ya que no hubo ninguna propuesta, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-01-2023</t>
+  </si>
+  <si>
+    <t>Adquisicion de herramientas y maquinas-herramientas</t>
+  </si>
+  <si>
+    <t>Arens</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Barraza</t>
+  </si>
+  <si>
+    <t>SABA911105F65</t>
+  </si>
+  <si>
+    <t>Vicente Guerrero</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada por Arens Sánchez Barraza, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en la Convocatoria a  la invitación y por lo tanto garantiza el cumplimiento de las obligaciones respectivas. Por lo nterior y con fundamento en los articulos 48, 49 y 50 de la ley en la materia, se le adjudica el contrato único por un importe de $77,900.00 el cual se integra por 3 partidas del procedimiento</t>
+  </si>
+  <si>
+    <t>23-60</t>
+  </si>
+  <si>
+    <t>Adquisición de herramientas y maquinas-herramientas</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 28/09/2023 al 19/10/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-02-2023</t>
+  </si>
+  <si>
+    <t>Adquisición de equipo medico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Marleen Alejandra</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>Juárez</t>
+  </si>
+  <si>
+    <t>MOJM780515GL0</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Geovillas de Nuevo Hidalgo</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada por Marleen Alejandra Montaño Juárez, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en la Convocatoria a  la invitación y por lo tanto garantiza el cumplimiento de las obligaciones respectivas. Por lo nterior y con fundamento en los articulos 48, 49 y 50 de la ley en la materia, se le adjudica el contrato único por un importe de $119,625 el cual se integra por 2 partidas del procedimiento</t>
+  </si>
+  <si>
+    <t>23-61</t>
+  </si>
+  <si>
+    <t>Adquisición de equipo médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Ariana Jaznery</t>
   </si>
   <si>
     <t>Gutierrez</t>
   </si>
   <si>
-    <t>MAGF730324L25</t>
-  </si>
-  <si>
-    <t>Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
-  </si>
-  <si>
-    <t>Carlos</t>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>GUGA</t>
+  </si>
+  <si>
+    <t>Representnte del Secretario ejecutivo</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
   </si>
   <si>
     <t>Garcia</t>
   </si>
   <si>
-    <t>Secretario ejecutivo</t>
-  </si>
-  <si>
-    <t>Josue Roman</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Mireles</t>
-  </si>
-  <si>
-    <t>MAMJ8208266N6</t>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>GAMM7709031F4</t>
+  </si>
+  <si>
+    <t>vocal, Representante del Secretario Academico</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>MOMJ6604298C5</t>
   </si>
   <si>
     <t>vocal</t>
   </si>
   <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>MOMJ6604298C5</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>JIBS760418AW2</t>
-  </si>
-  <si>
-    <t>asesor</t>
-  </si>
-  <si>
-    <t>Cravioto</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Sergio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roldan </t>
-  </si>
-  <si>
-    <t>Olvera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel </t>
-  </si>
-  <si>
-    <t>Meneses</t>
+    <t xml:space="preserve">Osvaldo </t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>CUCO850627DK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez </t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>MAGL</t>
+  </si>
+  <si>
+    <t>asesor, Represnetante del Abogado General</t>
+  </si>
+  <si>
+    <t>Yeritza Guadalupe</t>
+  </si>
+  <si>
+    <t>de Jesus</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>JERY9804206V8</t>
+  </si>
+  <si>
+    <t>Representante asesor del Organo interno de contyrol UPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas </t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>MECT</t>
+  </si>
+  <si>
+    <t>Asesor Oficialia amayor</t>
   </si>
   <si>
     <t>Renata</t>
@@ -1282,217 +1355,523 @@
     <t>Valencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Osvaldo </t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Campos</t>
-  </si>
-  <si>
-    <t>Yeritza Guadalupe</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Asesor Solicitante</t>
-  </si>
-  <si>
-    <t>Asesor Oficialia amayor</t>
-  </si>
-  <si>
-    <t>MEGM850920UM3</t>
-  </si>
-  <si>
-    <t>CUCO850627DK2</t>
-  </si>
-  <si>
-    <t>JERY9804206V8</t>
-  </si>
-  <si>
-    <t>LUCD811118GM4</t>
-  </si>
-  <si>
-    <t>CALC</t>
-  </si>
-  <si>
-    <t>MECA6105078H5</t>
-  </si>
-  <si>
-    <t>ROOL</t>
-  </si>
-  <si>
-    <t>Compu Formas, S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>CR01010219Z8</t>
-  </si>
-  <si>
-    <t>829 Ote</t>
+    <t>HEVAR811112</t>
+  </si>
+  <si>
+    <t>Representante Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
+  </si>
+  <si>
+    <t>de jesus</t>
+  </si>
+  <si>
+    <t>Equipo y Servicio Mupro, SA de CV</t>
+  </si>
+  <si>
+    <t>ESM011217QU6</t>
+  </si>
+  <si>
+    <t>23-89</t>
+  </si>
+  <si>
+    <t>KO&amp;KO Sistemas y Soluciones It, SA de CV</t>
+  </si>
+  <si>
+    <t>KSS100729I12</t>
+  </si>
+  <si>
+    <t>Everardo Marquez</t>
+  </si>
+  <si>
+    <t>Ex Hacienda de Coscotitlan</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Esta adjudicacion se deriva de los procesos desiertos LPN-ESTATAL-08 Y 09-2023  por no  presentarse opciones viables de analisis en los mismos y que para su adjudicacion directa estan autorizadas en  la SE-09-2023 del Comité de Adquisiciones, Arrendamientos y Servicios de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>adquisicion de otros equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo de anera directa con una persona Moral ya que los dos procesos se declararon desiertos y fue autorizado por el comite de Adquisiciones de la universidad en sesión SE-09-2023, este contrato esta vigente  a partir del 17/11/2023 al 31/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-09-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-04-2023</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, Auditoria y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Juana Judith</t>
+  </si>
+  <si>
+    <t>Tello</t>
+  </si>
+  <si>
+    <t>GUTJ820624GT6</t>
+  </si>
+  <si>
+    <t>Manuel Tolsa</t>
   </si>
   <si>
     <t>Centro</t>
   </si>
   <si>
-    <t>Albino Espinoza</t>
-  </si>
-  <si>
-    <t>Monterrey</t>
-  </si>
-  <si>
-    <t>23-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato esta vigente  a partir del 01/06/2023 al 07/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>Godinez</t>
-  </si>
-  <si>
-    <t>HEVAR811112</t>
-  </si>
-  <si>
-    <t>Lizbeth Mariana</t>
-  </si>
-  <si>
-    <t>del Valle</t>
-  </si>
-  <si>
-    <t>Benitez</t>
-  </si>
-  <si>
-    <t>Margarita</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Representante Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
-  </si>
-  <si>
-    <t>Representante Secretario ejecutivo</t>
-  </si>
-  <si>
-    <t>de jesus</t>
-  </si>
-  <si>
-    <t>SADM</t>
-  </si>
-  <si>
-    <t>Representante asesor del Organo interno de contyrol UPP</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Marquez</t>
-  </si>
-  <si>
-    <t>vocal, Representante del Secretario Academico</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>Mejia</t>
-  </si>
-  <si>
-    <t>Cesar Hugo</t>
-  </si>
-  <si>
-    <t>Doreantes</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>VABL8805212I0</t>
-  </si>
-  <si>
-    <t>DOCC750216BI1</t>
-  </si>
-  <si>
-    <t>GAMM7709031F4</t>
-  </si>
-  <si>
-    <t>asesor, Titular del organo interno de control UPP</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/LPN-ESTATAL-02-2023_convocatoria.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/JA-LPN-ESTATAL-02-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/AP-LPN-ESTATAL-02-2023.pdf</t>
-  </si>
-  <si>
-    <t>Contración del servicio telefonico tradicional e internet de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/23-17%20TELECOMUNICACIONES%20AUTONOMAS%20SIN%20LIMITES%20LPN-ESTATAL-02-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/LPN-ESTATAL-03-2023_convocatoria.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/JA-LPN-ESTATAL-03-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/AP-LPN-ESTATAL-03-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/23-25%20MULTIPRODUCTOS%20DE%20LEON.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/CONVOCATORIA-LPN-ESTATAL-04-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/JA-LPN-ESTATAL-04-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/AP-LPN-ESTATAL-04-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/dt1-2652023102958-18601678196.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/23-33%20COMPU%20FORMAS%20SA%20DE%20CV.pdf</t>
-  </si>
-  <si>
-    <t>Carlos Arturo</t>
-  </si>
-  <si>
-    <t>Padilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulises </t>
-  </si>
-  <si>
-    <t>De Leon</t>
-  </si>
-  <si>
-    <t>Jose Alberto</t>
-  </si>
-  <si>
-    <t>Treviño</t>
-  </si>
-  <si>
-    <t>Siller</t>
+    <t>Resulta conveniente la propuesta presentada por Juana Judith Guerrero Tello, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $149,500.00 el cual se integra por 1 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>Fiscalización</t>
+  </si>
+  <si>
+    <t>23-78</t>
+  </si>
+  <si>
+    <t>Servicio de auditoria externa</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 17/11/2023 al 31/03/2024, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-05-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-06-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-07-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-08-2023</t>
+  </si>
+  <si>
+    <t>Adquisicion de medicinas y productos farmaceuticos</t>
+  </si>
+  <si>
+    <t>Adquisicion de herramientas menores</t>
+  </si>
+  <si>
+    <t>Adquisicion de materiales y suministros medicos</t>
+  </si>
+  <si>
+    <t>Adquisicion de materiales didacticos</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>rodriguez</t>
+  </si>
+  <si>
+    <t>ROHH800703DM2</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>FEGL900414UF3</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Marleen Alejandra Montaño Juárez, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $119,667.24 el cual se integra por 1 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>Secretaria academica y vinculacion y extensión</t>
+  </si>
+  <si>
+    <t>23-75</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 14/11/2023 al 12/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>Rosriguez</t>
+  </si>
+  <si>
+    <t>Teodomiro Manzano</t>
+  </si>
+  <si>
+    <t>111 Mz.1 Lt. 62</t>
+  </si>
+  <si>
+    <t>PRI Chacon</t>
+  </si>
+  <si>
+    <t>Mineral de la Reforma</t>
+  </si>
+  <si>
+    <t>Minaral de la Reforma</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Hugo Rodriguez Hernandez, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $77,278.33 el cual se integra por 43 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>Secretaria academica y vinculacion y extensión, Secretaria administrativa</t>
+  </si>
+  <si>
+    <t>23-76</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Marleen Alejandra Montaño Juárez, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $89,645.07 el cual se integra por 43 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>23-77</t>
+  </si>
+  <si>
+    <t>Adquisicion de material y suinistros medicos</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 15/11/2023 al 28/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>23-90</t>
+  </si>
+  <si>
+    <t>adquisicion de material didactico</t>
+  </si>
+  <si>
+    <t>Secretaria academica</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Luis Miguel Angel Fernandez, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $191,988.27 el cual se integra por 103 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>Tipografia</t>
+  </si>
+  <si>
+    <t>20 de Noviembr</t>
+  </si>
+  <si>
+    <t>Venustiano Carranza</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-09-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-10-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-11-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-12-2023</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-13-2023</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de computo y tecnologias de la informacion</t>
+  </si>
+  <si>
+    <t>23-91</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de computo y tecnologias de la informacion</t>
+  </si>
+  <si>
+    <t>departamento de tecnologias de la informacion</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por RyP Corporativo Emp, SA de CV, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $184,748.78 el cual se integra por 53 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>depto 5</t>
+  </si>
+  <si>
+    <t>1ro de mayo</t>
+  </si>
+  <si>
+    <t>RCE130508IX3</t>
+  </si>
+  <si>
+    <t>R y P Corporativo Emp, SA de CV</t>
+  </si>
+  <si>
+    <t>RyP Corporativo Emp, SA de CV</t>
+  </si>
+  <si>
+    <t>Adquision de material electronico</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por RyP Corporativo Emp, SA de CV, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $78,531.74 el cual se integra por 53 partidas del procedimiento.</t>
+  </si>
+  <si>
+    <t>Varias</t>
+  </si>
+  <si>
+    <t>23-97</t>
+  </si>
+  <si>
+    <t>material electronico</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona moral, este contrato esta vigente  a partir del 05/12/2023 al 19/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento ya que fue declarado desierto. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona moral, este contrato esta vigente  a partir del 11/12/2023 al 28/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>23-98</t>
+  </si>
+  <si>
+    <t>Materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>secretaria academica</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Erendira Maricela Torres Sosa, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $155,739.44.</t>
+  </si>
+  <si>
+    <t>Material y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Erendira Maricela</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>TOSE860916U66</t>
+  </si>
+  <si>
+    <t>Sagrada Familia</t>
+  </si>
+  <si>
+    <t>El Paraiso</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 11/12/2023 al 28/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento ya que fue desierto. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona moral, este contrato esta vigente  a partir del 05/12/2023 al 31/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t>23-92</t>
+  </si>
+  <si>
+    <t>Material electrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio de instalacion y reparacion y mantenimiento de equipo de computo y tecnologia de la informacion </t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Grupo Marpa It, SA de CV, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $209,960.00</t>
+  </si>
+  <si>
+    <t>Servicio de instalación, reparación y mamtenimiento de equipo de computo y tecnologia de la informacion</t>
+  </si>
+  <si>
+    <t>Grupo Marpa It, SA de CV</t>
+  </si>
+  <si>
+    <t>IMP871216310</t>
+  </si>
+  <si>
+    <t>Valle de de la esperanza</t>
+  </si>
+  <si>
+    <t>Valle de San Javier</t>
+  </si>
+  <si>
+    <t>Grupo Marpa It, SA de Cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Carvajal</t>
+  </si>
+  <si>
+    <t>GOCI821230QV2</t>
+  </si>
+  <si>
+    <t>Prolongación Ley Agraria</t>
+  </si>
+  <si>
+    <t>Local 4</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>Resulta conveniente la propuesta presentada por Israel Gonzalez Carbajal, toda ves que cumple con los requisitos legales, tecnicos y economicos establecidos en las bases de la invitación y por lo tanto garantiza el cumplimiento de las obligaciones  se le adjudica el contrato único por un importe de $128,874.156</t>
+  </si>
+  <si>
+    <t>23-94</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona fisica, este contrato esta vigente  a partir del 05/12/2023 al 31/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. No se llevo a cabo junta de aclaraciones. La covocatoria o bases de la invitacion se difundira en la pagina oficial de la institucion con fundamento al articulo 58 de la LAASSPEH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/LPN-ESTATAL-07-2023%20PUBLICACION.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-01-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-02-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/PERI%C3%93DICO%20OFICIAL%20LPN-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-04-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-05-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-06-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-07-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-08-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-10-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-11-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-12-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA_I/BASES-IA-ESTATAL-13-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20P/JA-LPN-ESTATAL-07-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20P/JA-LPN-ESTATAL-08-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20P/JA-LPN-ESTATAL-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-LPN-ESTATAL-07-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-LPN-ESTATAL-08-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-01-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-02-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-LPN-ESTATAL-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-04-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-05-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-06-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-07-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-08-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-10-2023.pdf </t>
+  </si>
+  <si>
+    <t>https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-11-2023.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-12-2023.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20Q/AP-IA-ESTATAL-13-2023.pdf </t>
+  </si>
+  <si>
+    <t>https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-62%20MUSTACHE%20SOFTWARE%20LPN-ESTATAL-07-2023.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-60%20IA-ESTATAL-01-2023%20ARENS%20SANCHEZ%20BARRAZA%20.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-61%20IA-ESTATAL-02%202023%20MARLENEE%20ALEJANDRA%20MONTA%C3%91O.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-89%20KO%20%26%20KO%20SISTEMAS%20Y%20SOLUCIONES%20IT%20LPN-ESTATAL%208%20Y%209-2023%20DESIERTAS.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-78%20JUANA%20JUDITH%20GUERRERO%20TELLO%20IA-ESTATAL-04-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-76%20HUGO%20RODRIGUEZ%20HERNANDEZ.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-77%20MARLEEN%20ALEJANDRA%20RODRIGUEZ%2089%2C645%2C07.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-90%20LUIS%20MIGUEL%20ANGEL%20FERNANDEZ%20IA-ESTATAL-08-2023%20DESIERTA.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-91%20RYP%20CORPORATIVO%20EMP%20IA-ESTATAL-09-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-97%20RYP%20CORPORATIVO%20EMP%20IA-ESTATAL%2010-2023%20DESIERTA%20POR%2078%2C531%2C74.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-98%20ERENDIRA%20MARICELA%20TORRES%20SOSA%20%20IA-ESTATAL-11-2023%20DESIERTA.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-92%20GRUPO%20MARPA%20IT%20IA-ESTATAL%2012-2023.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-94%20ISRAEL%20GONZALES%20CARBAJAR.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-59%20GRUPO%20HIDALGUENSE%20DE%20DESARROLLO%20LPN-ESTATAL-07-2023%20.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/4to%20trimestre/28/28a/COLUMNA%20BH/23-75%20MARLENNE%20ALEJANDRA%20MONTA%C3%91O%20JUAREZ%20119%2C667%2C24.pdf </t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1515,10 +1894,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1547,7 +1926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1570,51 +1949,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1645,44 +2071,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1732,9 +2158,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1790,175 +2216,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC10"/>
+  <dimension ref="A1:CC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,79 +2373,79 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="126.42578125" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="147.42578125" customWidth="1"/>
-    <col min="17" max="17" width="128.5703125" customWidth="1"/>
-    <col min="18" max="18" width="111.28515625" customWidth="1"/>
-    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="73" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="84" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="60" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="73" customWidth="1"/>
-    <col min="43" max="43" width="32.140625" customWidth="1"/>
-    <col min="44" max="44" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17" customWidth="1"/>
-    <col min="57" max="57" width="26.28515625" customWidth="1"/>
-    <col min="58" max="58" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="132.7109375" customWidth="1"/>
-    <col min="61" max="61" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="46" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="82" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="46" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="57" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="82" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="20" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="61.140625" customWidth="1"/>
+    <col min="9" max="9" width="186.42578125" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="14" max="14" width="46" customWidth="1"/>
+    <col min="15" max="15" width="73.28515625" customWidth="1"/>
+    <col min="16" max="16" width="152.28515625" customWidth="1"/>
+    <col min="17" max="17" width="181.85546875" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="19" max="19" width="33.5703125" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="58.140625" customWidth="1"/>
+    <col min="24" max="24" width="48.5703125" customWidth="1"/>
+    <col min="25" max="25" width="69.42578125" customWidth="1"/>
+    <col min="26" max="26" width="63.5703125" customWidth="1"/>
+    <col min="27" max="27" width="61" customWidth="1"/>
+    <col min="28" max="28" width="70.42578125" customWidth="1"/>
+    <col min="29" max="29" width="74.42578125" customWidth="1"/>
+    <col min="30" max="30" width="69" customWidth="1"/>
+    <col min="31" max="31" width="64.5703125" customWidth="1"/>
+    <col min="32" max="32" width="66.5703125" customWidth="1"/>
+    <col min="33" max="33" width="64.7109375" customWidth="1"/>
+    <col min="34" max="34" width="77.28515625" customWidth="1"/>
+    <col min="35" max="35" width="73" customWidth="1"/>
+    <col min="36" max="36" width="84" customWidth="1"/>
+    <col min="37" max="37" width="59.140625" customWidth="1"/>
+    <col min="38" max="38" width="60" customWidth="1"/>
+    <col min="39" max="39" width="62.5703125" customWidth="1"/>
+    <col min="40" max="40" width="60.85546875" customWidth="1"/>
+    <col min="41" max="41" width="63.28515625" customWidth="1"/>
+    <col min="42" max="42" width="86.28515625" customWidth="1"/>
+    <col min="43" max="43" width="21.7109375" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
+    <col min="45" max="45" width="31.140625" customWidth="1"/>
+    <col min="46" max="46" width="30.85546875" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" customWidth="1"/>
+    <col min="48" max="48" width="48.28515625" customWidth="1"/>
+    <col min="49" max="49" width="50.42578125" customWidth="1"/>
+    <col min="50" max="50" width="37.140625" customWidth="1"/>
+    <col min="51" max="51" width="47.28515625" customWidth="1"/>
+    <col min="52" max="52" width="44" customWidth="1"/>
+    <col min="53" max="53" width="44.42578125" customWidth="1"/>
+    <col min="54" max="54" width="14.42578125" customWidth="1"/>
+    <col min="55" max="55" width="35.28515625" customWidth="1"/>
+    <col min="56" max="56" width="20.85546875" customWidth="1"/>
+    <col min="57" max="57" width="17.140625" customWidth="1"/>
+    <col min="58" max="58" width="41.140625" customWidth="1"/>
+    <col min="59" max="59" width="43.28515625" customWidth="1"/>
+    <col min="60" max="60" width="228.28515625" customWidth="1"/>
+    <col min="61" max="61" width="46.5703125" customWidth="1"/>
+    <col min="62" max="62" width="46" customWidth="1"/>
+    <col min="63" max="63" width="36.140625" customWidth="1"/>
+    <col min="64" max="64" width="22.28515625" customWidth="1"/>
+    <col min="65" max="65" width="46.5703125" customWidth="1"/>
+    <col min="66" max="66" width="44.5703125" customWidth="1"/>
+    <col min="67" max="67" width="41.28515625" customWidth="1"/>
+    <col min="68" max="68" width="60.140625" customWidth="1"/>
+    <col min="69" max="69" width="82" customWidth="1"/>
+    <col min="70" max="70" width="51.140625" customWidth="1"/>
+    <col min="71" max="71" width="42.140625" customWidth="1"/>
+    <col min="72" max="72" width="46" customWidth="1"/>
+    <col min="73" max="73" width="57" customWidth="1"/>
+    <col min="74" max="74" width="46.5703125" customWidth="1"/>
+    <col min="75" max="75" width="51.5703125" customWidth="1"/>
+    <col min="76" max="76" width="76.5703125" customWidth="1"/>
+    <col min="77" max="77" width="82" customWidth="1"/>
+    <col min="78" max="78" width="73.140625" customWidth="1"/>
+    <col min="79" max="79" width="17.5703125" customWidth="1"/>
+    <col min="80" max="80" width="20" customWidth="1"/>
+    <col min="81" max="81" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
@@ -2051,1447 +2453,3834 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:81" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:81" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:81" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:81" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BK4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BM4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BO4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BP4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BT4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BW4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BX4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BY4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CA4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CB4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CC4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:81" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BE5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BF5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BG5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BH5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BI5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BK5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BL5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BM5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BN5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BO5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BP5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BR5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BS5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BT5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BU5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BV5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BW5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BX5" t="s">
+      <c r="BX5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BY5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="BZ5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="CA5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CB5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CC5" t="s">
+      <c r="CC5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:81" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+    </row>
+    <row r="7" spans="1:81" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-    </row>
-    <row r="7" spans="1:81" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AR7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AU7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AZ7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BA7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BB7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BC7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BD7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BE7" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BF7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BG7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="BG7" s="2" t="s">
+      <c r="BH7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BI7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="BI7" s="2" t="s">
+      <c r="BJ7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="BJ7" s="2" t="s">
+      <c r="BK7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="BK7" s="2" t="s">
+      <c r="BL7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="BL7" s="2" t="s">
+      <c r="BM7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="BM7" s="2" t="s">
+      <c r="BN7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BN7" s="2" t="s">
+      <c r="BO7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BO7" s="2" t="s">
+      <c r="BP7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="BP7" s="2" t="s">
+      <c r="BQ7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="BQ7" s="2" t="s">
+      <c r="BR7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="BR7" s="2" t="s">
+      <c r="BS7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="BS7" s="2" t="s">
+      <c r="BT7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="BT7" s="2" t="s">
+      <c r="BU7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="BV7" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="BW7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="BW7" s="2" t="s">
+      <c r="BX7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="BX7" s="2" t="s">
+      <c r="BY7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="BY7" s="2" t="s">
+      <c r="BZ7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BZ7" s="2" t="s">
+      <c r="CA7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="CA7" s="2" t="s">
+      <c r="CB7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="CB7" s="2" t="s">
+      <c r="CC7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="CC7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:81" s="7" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:81" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="E8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45180</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>45183</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>3810</v>
+      </c>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS8" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT8" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>45196</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>45196</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>45257</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>384475</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>445991</v>
+      </c>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF8" s="16">
+        <v>45195</v>
+      </c>
+      <c r="BG8" s="16">
+        <v>45257</v>
+      </c>
+      <c r="BH8" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA8" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB8" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC8" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" s="7" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>2023</v>
       </c>
-      <c r="B8" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="J9" s="16">
+        <v>45180</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>45183</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>42088</v>
+      </c>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR9" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS9" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT9" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>45191</v>
+      </c>
+      <c r="AV9" s="16">
+        <v>45191</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>45275</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>91658</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>106322.79</v>
+      </c>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF9" s="16">
+        <v>45191</v>
+      </c>
+      <c r="BG9" s="16">
+        <v>45275</v>
+      </c>
+      <c r="BH9" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL9" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA9" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB9" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC9" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" s="7" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="J10" s="16">
+        <v>45171</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="16">
+        <v>45196</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>2</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS10" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL10" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="8"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="8"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="BZ10" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA10" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB10" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC10" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" s="7" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="J11" s="16">
+        <v>45183</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>822</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>42000</v>
+      </c>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR11" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS11" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT11" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU11" s="16">
+        <v>45197</v>
+      </c>
+      <c r="AV11" s="16">
+        <v>45197</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>45218</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>67156</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>77900</v>
+      </c>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="BF11" s="16">
+        <v>45197</v>
+      </c>
+      <c r="BG11" s="16">
+        <v>45218</v>
+      </c>
+      <c r="BH11" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL11" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+      <c r="BQ11" s="8"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT11" s="8"/>
+      <c r="BU11" s="8"/>
+      <c r="BV11" s="8"/>
+      <c r="BW11" s="8"/>
+      <c r="BX11" s="8"/>
+      <c r="BY11" s="8"/>
+      <c r="BZ11" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA11" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB11" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC11" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" s="7" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="J12" s="16">
+        <v>45183</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="L12" s="8">
+        <v>4</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>126</v>
+      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>42083</v>
+      </c>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU12" s="16">
+        <v>45197</v>
+      </c>
+      <c r="AV12" s="16">
+        <v>45197</v>
+      </c>
+      <c r="AW12" s="16">
+        <v>45218</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>103125</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>119625</v>
+      </c>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE12" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF12" s="16">
+        <v>45197</v>
+      </c>
+      <c r="BG12" s="16">
+        <v>45218</v>
+      </c>
+      <c r="BH12" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL12" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="8"/>
+      <c r="BV12" s="8"/>
+      <c r="BW12" s="8"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="8"/>
+      <c r="BZ12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC12" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" s="7" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C13" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="J13" s="16">
+        <v>45215</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="8">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>45222</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>115</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>42064</v>
+      </c>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ13" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR13" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS13" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AU13" s="16">
+        <v>45247</v>
+      </c>
+      <c r="AV13" s="16">
+        <v>45247</v>
+      </c>
+      <c r="AW13" s="16">
+        <v>45260</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>256891.81</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>297994.5</v>
+      </c>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE13" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="BF13" s="16">
+        <v>45247</v>
+      </c>
+      <c r="BG13" s="16">
+        <v>45291</v>
+      </c>
+      <c r="BH13" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="BK13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL13" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+      <c r="BQ13" s="8"/>
+      <c r="BR13" s="8"/>
+      <c r="BS13" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT13" s="8"/>
+      <c r="BU13" s="8"/>
+      <c r="BV13" s="8"/>
+      <c r="BW13" s="8"/>
+      <c r="BX13" s="8"/>
+      <c r="BY13" s="8"/>
+      <c r="BZ13" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA13" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB13" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC13" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C14" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="J14" s="16">
+        <v>45223</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="L14" s="8">
+        <v>6</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>42000</v>
+      </c>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS14" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT14" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J8" s="4">
-        <v>45019</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="AU14" s="16">
+        <v>45247</v>
+      </c>
+      <c r="AV14" s="16">
+        <v>45247</v>
+      </c>
+      <c r="AW14" s="16">
+        <v>45382</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>128879.31</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>149500</v>
+      </c>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="BF14" s="16">
+        <v>45247</v>
+      </c>
+      <c r="BG14" s="16">
+        <v>45382</v>
+      </c>
+      <c r="BH14" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL14" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="8"/>
+      <c r="BQ14" s="8"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="8"/>
+      <c r="BV14" s="8"/>
+      <c r="BW14" s="8"/>
+      <c r="BX14" s="8"/>
+      <c r="BY14" s="8"/>
+      <c r="BZ14" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA14" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB14" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC14" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C15" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>45028</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="W8" s="3" t="s">
+      <c r="I15" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="J15" s="16">
+        <v>45229</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="8">
+        <v>4</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z8" s="3" t="s">
+      <c r="X15" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>126</v>
+      </c>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>42083</v>
+      </c>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AR15" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS15" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AT15" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU15" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AV15" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AW15" s="16">
+        <v>45272</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>103161.41</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>119667.24</v>
+      </c>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="AE8" s="3">
-        <v>114</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>114</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>21</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>72160</v>
-      </c>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="5" t="s">
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="BE15" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="BF15" s="16">
+        <v>45244</v>
+      </c>
+      <c r="BG15" s="16">
+        <v>45272</v>
+      </c>
+      <c r="BH15" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL15" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="AR8" s="5" t="s">
+      <c r="BM15" s="8"/>
+      <c r="BN15" s="8"/>
+      <c r="BO15" s="8"/>
+      <c r="BP15" s="8"/>
+      <c r="BQ15" s="8"/>
+      <c r="BR15" s="8"/>
+      <c r="BS15" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT15" s="8"/>
+      <c r="BU15" s="8"/>
+      <c r="BV15" s="8"/>
+      <c r="BW15" s="8"/>
+      <c r="BX15" s="8"/>
+      <c r="BY15" s="8"/>
+      <c r="BZ15" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA15" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB15" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C16" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="J16" s="16">
+        <v>45229</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="L16" s="8">
+        <v>7</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>51</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>42186</v>
+      </c>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU16" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AV16" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AW16" s="16">
+        <v>45272</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>66619.25</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>7727.33</v>
+      </c>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE16" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="BF16" s="16">
+        <v>45244</v>
+      </c>
+      <c r="BG16" s="16">
+        <v>45272</v>
+      </c>
+      <c r="BH16" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8">
+        <v>7</v>
+      </c>
+      <c r="BK16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL16" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM16" s="8"/>
+      <c r="BN16" s="8"/>
+      <c r="BO16" s="8"/>
+      <c r="BP16" s="8"/>
+      <c r="BQ16" s="8"/>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT16" s="8"/>
+      <c r="BU16" s="8"/>
+      <c r="BV16" s="8"/>
+      <c r="BW16" s="8"/>
+      <c r="BX16" s="8"/>
+      <c r="BY16" s="8"/>
+      <c r="BZ16" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA16" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB16" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC16" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" s="7" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C17" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="J17" s="16">
+        <v>45229</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="L17" s="8">
+        <v>4</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>126</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="AS8" s="5" t="s">
+      <c r="AG17" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>42083</v>
+      </c>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU17" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AV17" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AW17" s="16">
+        <v>45272</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>77280.23</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>89645.07</v>
+      </c>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="BF17" s="16">
+        <v>45244</v>
+      </c>
+      <c r="BG17" s="16">
+        <v>45272</v>
+      </c>
+      <c r="BH17" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8">
+        <v>8</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL17" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="8"/>
+      <c r="BO17" s="8"/>
+      <c r="BP17" s="8"/>
+      <c r="BQ17" s="8"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="8"/>
+      <c r="BV17" s="8"/>
+      <c r="BW17" s="8"/>
+      <c r="BX17" s="8"/>
+      <c r="BY17" s="8"/>
+      <c r="BZ17" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AT8" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>45040</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>45047</v>
-      </c>
-      <c r="AW8" s="4">
+      <c r="CA17" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB17" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC17" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" s="7" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C18" s="16">
         <v>45291</v>
       </c>
-      <c r="AX8" s="3">
-        <v>422068.96</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>489600</v>
-      </c>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="BF8" s="4">
-        <v>45047</v>
-      </c>
-      <c r="BG8" s="4">
+      <c r="D18" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="J18" s="16">
+        <v>45229</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="L18" s="8">
+        <v>8</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>131</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>17</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>17</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>15300</v>
+      </c>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ18" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU18" s="16">
+        <v>45244</v>
+      </c>
+      <c r="AV18" s="16">
+        <v>45245</v>
+      </c>
+      <c r="AW18" s="16">
+        <v>45288</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>165507.13</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>191988.27</v>
+      </c>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE18" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="BF18" s="16">
+        <v>45245</v>
+      </c>
+      <c r="BG18" s="16">
+        <v>45288</v>
+      </c>
+      <c r="BH18" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8">
+        <v>9</v>
+      </c>
+      <c r="BK18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL18" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="8"/>
+      <c r="BO18" s="8"/>
+      <c r="BP18" s="8"/>
+      <c r="BQ18" s="8"/>
+      <c r="BR18" s="8"/>
+      <c r="BS18" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT18" s="8"/>
+      <c r="BU18" s="8"/>
+      <c r="BV18" s="8"/>
+      <c r="BW18" s="8"/>
+      <c r="BX18" s="8"/>
+      <c r="BY18" s="8"/>
+      <c r="BZ18" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA18" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB18" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC18" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:81" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C19" s="16">
         <v>45291</v>
       </c>
-      <c r="BH8" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL8" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-      <c r="BX8" s="3"/>
-      <c r="BY8" s="3"/>
-      <c r="BZ8" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CB8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CC8" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="8">
+        <v>9</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="J19" s="16">
+        <v>45253</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L19" s="8">
+        <v>9</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>301</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>42040</v>
+      </c>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ19" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR19" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="AU19" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AV19" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AW19" s="16">
+        <v>45279</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>159266.19</v>
+      </c>
+      <c r="AY19" s="8">
+        <v>184748.78</v>
+      </c>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE19" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="BF19" s="16">
+        <v>45265</v>
+      </c>
+      <c r="BG19" s="16">
+        <v>45279</v>
+      </c>
+      <c r="BH19" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8">
+        <v>10</v>
+      </c>
+      <c r="BK19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL19" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM19" s="8"/>
+      <c r="BN19" s="8"/>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="8"/>
+      <c r="BQ19" s="8"/>
+      <c r="BR19" s="8"/>
+      <c r="BS19" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT19" s="8"/>
+      <c r="BU19" s="8"/>
+      <c r="BV19" s="8"/>
+      <c r="BW19" s="8"/>
+      <c r="BX19" s="8"/>
+      <c r="BY19" s="8"/>
+      <c r="BZ19" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA19" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB19" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC19" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:81" s="7" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>2023</v>
       </c>
-      <c r="B9" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B20" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C20" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="J9" s="4">
-        <v>45019</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45028</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="W9" s="3" t="s">
+      <c r="E20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="J20" s="16">
+        <v>45253</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="L20" s="8">
+        <v>9</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>301</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>48</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>48</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>42040</v>
+      </c>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ20" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="AU20" s="16">
+        <v>45271</v>
+      </c>
+      <c r="AV20" s="16">
+        <v>45271</v>
+      </c>
+      <c r="AW20" s="16">
+        <v>45288</v>
+      </c>
+      <c r="AX20" s="8">
+        <v>67699.77</v>
+      </c>
+      <c r="AY20" s="8">
+        <v>78531.740000000005</v>
+      </c>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE20" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="BF20" s="16">
+        <v>45271</v>
+      </c>
+      <c r="BG20" s="16">
+        <v>45288</v>
+      </c>
+      <c r="BH20" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="8">
+        <v>11</v>
+      </c>
+      <c r="BK20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL20" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM20" s="8"/>
+      <c r="BN20" s="8"/>
+      <c r="BO20" s="8"/>
+      <c r="BP20" s="8"/>
+      <c r="BQ20" s="8"/>
+      <c r="BR20" s="8"/>
+      <c r="BS20" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT20" s="8"/>
+      <c r="BU20" s="8"/>
+      <c r="BV20" s="8"/>
+      <c r="BW20" s="8"/>
+      <c r="BX20" s="8"/>
+      <c r="BY20" s="8"/>
+      <c r="BZ20" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA20" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB20" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC20" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" s="7" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="8">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="J21" s="16">
+        <v>45253</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="L21" s="8">
+        <v>10</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>118</v>
-      </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE9" s="3">
+      <c r="X21" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>135</v>
+      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>51</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>51</v>
+      </c>
+      <c r="AH21" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>42186</v>
+      </c>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ21" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR21" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU21" s="16">
+        <v>45271</v>
+      </c>
+      <c r="AV21" s="16">
+        <v>45271</v>
+      </c>
+      <c r="AW21" s="16">
+        <v>45288</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>135426.6</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>155739.44</v>
+      </c>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE21" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="BF21" s="16">
+        <v>45271</v>
+      </c>
+      <c r="BG21" s="16">
+        <v>45288</v>
+      </c>
+      <c r="BH21" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8">
+        <v>12</v>
+      </c>
+      <c r="BK21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL21" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="8"/>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="8"/>
+      <c r="BX21" s="8"/>
+      <c r="BY21" s="8"/>
+      <c r="BZ21" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA21" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB21" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC21" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:81" s="7" customFormat="1" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C22" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="8">
+        <v>11</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="J22" s="16">
+        <v>45253</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="L22" s="8">
+        <v>11</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE22" s="8">
         <v>48</v>
       </c>
-      <c r="AF9" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG9" s="3">
+      <c r="AF22" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG22" s="8">
         <v>48</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI9" s="3">
+      <c r="AH22" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI22" s="8">
         <v>13</v>
       </c>
-      <c r="AJ9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>42083</v>
-      </c>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR9" s="5" t="s">
+      <c r="AJ22" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>42086</v>
+      </c>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="AQ22" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR22" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="AU22" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AV22" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AW22" s="16">
+        <v>45291</v>
+      </c>
+      <c r="AX22" s="8">
+        <v>181000</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>209960</v>
+      </c>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE22" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="BF22" s="16">
+        <v>45265</v>
+      </c>
+      <c r="BG22" s="16">
+        <v>45291</v>
+      </c>
+      <c r="BH22" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8">
+        <v>13</v>
+      </c>
+      <c r="BK22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL22" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM22" s="8"/>
+      <c r="BN22" s="8"/>
+      <c r="BO22" s="8"/>
+      <c r="BP22" s="8"/>
+      <c r="BQ22" s="8"/>
+      <c r="BR22" s="8"/>
+      <c r="BS22" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT22" s="8"/>
+      <c r="BU22" s="8"/>
+      <c r="BV22" s="8"/>
+      <c r="BW22" s="8"/>
+      <c r="BX22" s="8"/>
+      <c r="BY22" s="8"/>
+      <c r="BZ22" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AS9" s="5" t="s">
+      <c r="CA22" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB22" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC22" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:81" s="7" customFormat="1" ht="310.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="16">
+        <v>45200</v>
+      </c>
+      <c r="C23" s="16">
+        <v>45291</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="8">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="J23" s="16">
+        <v>45253</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="L23" s="8">
+        <v>12</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8">
+        <v>83</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>83</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>43845</v>
+      </c>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ23" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR23" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="AU23" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AV23" s="16">
+        <v>45265</v>
+      </c>
+      <c r="AW23" s="16">
+        <v>45291</v>
+      </c>
+      <c r="AX23" s="8">
+        <v>111098.41</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>128874.156</v>
+      </c>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE23" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="BF23" s="16">
+        <v>45265</v>
+      </c>
+      <c r="BG23" s="16">
+        <v>45291</v>
+      </c>
+      <c r="BH23" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8">
+        <v>14</v>
+      </c>
+      <c r="BK23" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL23" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM23" s="8"/>
+      <c r="BN23" s="8"/>
+      <c r="BO23" s="8"/>
+      <c r="BP23" s="8"/>
+      <c r="BQ23" s="8"/>
+      <c r="BR23" s="8"/>
+      <c r="BS23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BT23" s="8"/>
+      <c r="BU23" s="8"/>
+      <c r="BV23" s="8"/>
+      <c r="BW23" s="8"/>
+      <c r="BX23" s="8"/>
+      <c r="BY23" s="8"/>
+      <c r="BZ23" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AT9" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU9" s="4">
-        <v>45040</v>
-      </c>
-      <c r="AV9" s="4">
-        <v>45040</v>
-      </c>
-      <c r="AW9" s="4">
-        <v>45291</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>281016.73</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>325979.40999999997</v>
-      </c>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE9" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF9" s="4">
-        <v>45040</v>
-      </c>
-      <c r="BG9" s="4">
-        <v>45291</v>
-      </c>
-      <c r="BH9" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3">
-        <v>2</v>
-      </c>
-      <c r="BK9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL9" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="3"/>
-      <c r="BX9" s="3"/>
-      <c r="BY9" s="3"/>
-      <c r="BZ9" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA9" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CB9" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CC9" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:81" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J10" s="4">
-        <v>45061</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45064</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>39</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>19</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>64000</v>
-      </c>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AS10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AU10" s="4">
-        <v>45078</v>
-      </c>
-      <c r="AV10" s="4">
-        <v>45078</v>
-      </c>
-      <c r="AW10" s="4">
-        <v>45267</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>285300</v>
-      </c>
-      <c r="AY10" s="3">
-        <v>330948</v>
-      </c>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE10" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="BF10" s="4">
-        <v>45078</v>
-      </c>
-      <c r="BG10" s="4">
-        <v>45267</v>
-      </c>
-      <c r="BH10" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3">
-        <v>3</v>
-      </c>
-      <c r="BK10" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL10" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3"/>
-      <c r="BZ10" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="CA10" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CB10" s="4">
-        <v>45117</v>
-      </c>
-      <c r="CC10" s="6" t="s">
-        <v>428</v>
+      <c r="CA23" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CB23" s="16">
+        <v>45301</v>
+      </c>
+      <c r="CC23" s="8" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3504,55 +6293,94 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D156" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E156" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F156" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W10" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W156" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y10" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y156" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_524</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC10" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC156" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_628</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AJ8:AJ10" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AJ8:AJ156" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Hidden_735</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BK8:BK10" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BK8:BK156" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Hidden_862</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR10" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR156" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Hidden_969</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BS8:BS10" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BS8:BS156" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Hidden_1070</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1" xr:uid="{FECB2B4A-CBB6-4319-ABF5-BD2B60796DA3}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{F4319AD3-8475-41AA-BE2A-6675CD8B6C4D}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{89615702-FFA0-4716-A109-E25A0C847444}"/>
-    <hyperlink ref="Q8" r:id="rId4" xr:uid="{944F612F-DA52-4789-B245-AD8B21678BFE}"/>
-    <hyperlink ref="BH8" r:id="rId5" xr:uid="{BEF3E129-9B3E-4152-9593-88C11DBB0446}"/>
-    <hyperlink ref="P9" r:id="rId6" xr:uid="{D9BE215E-A8CF-4374-9D1C-68AB004C0DBA}"/>
-    <hyperlink ref="Q9" r:id="rId7" xr:uid="{7D193B2B-C774-41FA-AD33-A85FB87BB573}"/>
-    <hyperlink ref="BH9" r:id="rId8" xr:uid="{CDA52BCB-A0CF-4447-9C52-F7B7064756CF}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{67B95607-30B9-4469-A0FB-3FE3EA8CB643}"/>
-    <hyperlink ref="P10" r:id="rId10" xr:uid="{F40F3DD1-5ADD-4E04-8147-2DF9BDD9F9B5}"/>
-    <hyperlink ref="Q10" r:id="rId11" xr:uid="{15F2B615-B35F-445B-87E3-00FB51AF1F67}"/>
-    <hyperlink ref="R10" r:id="rId12" xr:uid="{31043190-12E6-46F7-9044-3A197CBB5719}"/>
-    <hyperlink ref="BH10" r:id="rId13" xr:uid="{38469B2A-8E4F-4AF5-8F7F-1B68B506C752}"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{82F90080-AE10-4CDC-A84F-9E90D66CED45}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{74FBCA58-19B5-4EE9-ACE9-0015C2E0AB82}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{579AB711-E26D-49C4-AFE2-12B4C8CD4499}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{914A4878-264A-42C1-A8F1-C0AE99642D36}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{69E56E42-D2E1-4C45-9AE5-0CC409858F3D}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{375B210C-8CE8-49CF-A2D3-A88F1E0051AE}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{8CCBE541-C98E-412D-A9A3-638CD58051E5}"/>
+    <hyperlink ref="I15" r:id="rId8" xr:uid="{7930A583-13AF-4824-85A1-2DB0305F32DF}"/>
+    <hyperlink ref="I16" r:id="rId9" xr:uid="{11C92148-42B2-48BB-BFE8-9CF2686B16E5}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{00977866-76D5-4F04-9E0B-2ADA12896FF0}"/>
+    <hyperlink ref="I18" r:id="rId11" xr:uid="{031D5F15-9161-4E52-B93B-1D94C2875CD6}"/>
+    <hyperlink ref="I19" r:id="rId12" xr:uid="{9F9A7689-5F51-4339-A189-F4402D3D5BDB}"/>
+    <hyperlink ref="I20" r:id="rId13" xr:uid="{A7A20EBA-3DDD-44CC-8E24-12AED763FB98}"/>
+    <hyperlink ref="I21" r:id="rId14" xr:uid="{05F69B13-0630-419A-B991-F070D62D6418}"/>
+    <hyperlink ref="I22" r:id="rId15" xr:uid="{88D93DA2-1E6C-4A54-A70B-C7795F5B8700}"/>
+    <hyperlink ref="I23" r:id="rId16" xr:uid="{CA4D0AB1-D976-448B-9345-C7954FC77C7B}"/>
+    <hyperlink ref="P8" r:id="rId17" xr:uid="{B3622C20-9227-46FC-BFC9-972B097AC7CF}"/>
+    <hyperlink ref="P9" r:id="rId18" xr:uid="{D4AAB231-7469-4B50-9A7F-38A71DB27DC9}"/>
+    <hyperlink ref="P10" r:id="rId19" xr:uid="{4B2ABBAC-9FCE-4B47-845C-A69FC7E32894}"/>
+    <hyperlink ref="P13" r:id="rId20" xr:uid="{1E09C9C8-6416-46E3-99D0-0CF48351549B}"/>
+    <hyperlink ref="Q8" r:id="rId21" xr:uid="{B47F95E0-51DD-41D3-A9D2-66D661BE0C57}"/>
+    <hyperlink ref="Q9" r:id="rId22" xr:uid="{590EE88A-E8EC-46A8-B29E-C5D3EB03033B}"/>
+    <hyperlink ref="Q10" r:id="rId23" xr:uid="{57D1482A-F1DA-4794-B7A4-8747A0C8B94F}"/>
+    <hyperlink ref="Q11" r:id="rId24" xr:uid="{D06820F0-5602-4E66-87E5-F1B3C34B325E}"/>
+    <hyperlink ref="Q12" r:id="rId25" xr:uid="{8D278F17-7E2C-4C68-9F96-63B8BE050682}"/>
+    <hyperlink ref="Q13" r:id="rId26" xr:uid="{B9494EC1-9A43-4034-84E0-B7362460FE69}"/>
+    <hyperlink ref="Q14" r:id="rId27" xr:uid="{9478D338-DA59-4B36-BE6A-58B614E3455B}"/>
+    <hyperlink ref="Q15" r:id="rId28" xr:uid="{6E1383B7-4CFA-4AEE-BEBD-49CE403B6E9E}"/>
+    <hyperlink ref="Q16" r:id="rId29" xr:uid="{786E9A3D-DEE3-48F8-A71C-45FFAE6EB6F8}"/>
+    <hyperlink ref="Q17" r:id="rId30" xr:uid="{1E25FE8D-65A2-48FB-9760-B28D8128449F}"/>
+    <hyperlink ref="Q18" r:id="rId31" xr:uid="{21261AFC-0EA3-487E-B512-5617B83B32C3}"/>
+    <hyperlink ref="Q19" r:id="rId32" xr:uid="{2159CDE1-76E8-49E2-92E2-44D93159F917}"/>
+    <hyperlink ref="Q20" r:id="rId33" xr:uid="{9DA17EA6-BA1D-45F4-8D27-283DC58903E9}"/>
+    <hyperlink ref="Q21" r:id="rId34" xr:uid="{048BC475-1912-4010-B1B7-6F172094419A}"/>
+    <hyperlink ref="Q22" r:id="rId35" xr:uid="{BB6F7AA9-583E-485A-B154-4BB3FECAC82C}"/>
+    <hyperlink ref="Q23" r:id="rId36" xr:uid="{193A7015-D5E0-44AB-8484-8AFBD3C063D5}"/>
+    <hyperlink ref="BH8" r:id="rId37" xr:uid="{E6C2BC8D-CE6D-41CD-A814-F9B639C3CA2C}"/>
+    <hyperlink ref="BH11" r:id="rId38" xr:uid="{3EA393FC-0470-4E6D-8A42-26B0C22989A2}"/>
+    <hyperlink ref="BH12" r:id="rId39" xr:uid="{73279FB8-5B01-490A-839A-35A7EDBA11FE}"/>
+    <hyperlink ref="BH13" r:id="rId40" xr:uid="{E5D071A7-D3AA-44F4-8BD6-EBEEE43AD187}"/>
+    <hyperlink ref="BH14" r:id="rId41" xr:uid="{832EBA3B-88B4-4B03-82B4-B6D6B4F62E01}"/>
+    <hyperlink ref="BH16" r:id="rId42" xr:uid="{4169ACBB-9206-49D7-85DE-009B5025B5A7}"/>
+    <hyperlink ref="BH17" r:id="rId43" xr:uid="{DD72B575-890F-4C9E-87AE-A9A5AB10ADC0}"/>
+    <hyperlink ref="BH18" r:id="rId44" xr:uid="{10B136D0-A239-4837-B2E8-698A416B29B4}"/>
+    <hyperlink ref="BH19" r:id="rId45" xr:uid="{C666F01C-B171-4935-AF53-61F1466F7C65}"/>
+    <hyperlink ref="BH20" r:id="rId46" xr:uid="{001A8A07-28E2-4ABE-A8E8-5D214314A8EB}"/>
+    <hyperlink ref="BH21" r:id="rId47" xr:uid="{8084F91C-55C8-499D-B7CB-9B84751B8F13}"/>
+    <hyperlink ref="BH22" r:id="rId48" xr:uid="{932CB1D2-5337-446D-A579-7FF536FB86A6}"/>
+    <hyperlink ref="BH23" r:id="rId49" xr:uid="{46931FEE-4E06-4869-92C4-9FD9BA9116AF}"/>
+    <hyperlink ref="BH9" r:id="rId50" xr:uid="{5B953FE3-5C28-4D25-8E96-B47495C610C6}"/>
+    <hyperlink ref="BH15" r:id="rId51" xr:uid="{D7F6A6F1-A572-4BF7-B48B-79EFFF064202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -3566,17 +6394,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3594,12 +6422,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3609,19 +6437,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3648,120 +6476,273 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>296</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>297</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>298</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D11" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>422</v>
+      <c r="G13" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F114" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F7 F9:F11 F16:F72" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>Hidden_1_Tabla_4928385</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8 F13:F15" xr:uid="{77CD48D3-A3F7-4175-818D-B2F3428B3AEB}">
+      <formula1>Hidden_1_Tabla_4928675</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,12 +6759,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3793,10 +6774,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3805,7 +6786,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84" bestFit="1" customWidth="1"/>
   </cols>
@@ -3832,119 +6813,273 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
         <v>307</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>308</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>309</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>310</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>311</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D11" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>422</v>
+      <c r="G13" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F132" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F11 F13:F85" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>Hidden_1_Tabla_4928675</formula1>
     </dataValidation>
   </dataValidations>
@@ -3962,12 +7097,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3977,10 +7112,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,7 +7124,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4016,101 +7151,80 @@
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>317</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>318</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>319</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>350</v>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>422</v>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F132" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F190" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>Hidden_1_Tabla_4928685</formula1>
     </dataValidation>
   </dataValidations>
@@ -4128,12 +7242,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4143,13 +7257,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,10 +7270,10 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.5703125" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -4182,678 +7293,392 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
         <v>322</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>323</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>324</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>325</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>326</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F4" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F11" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E16" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F16" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="F17" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="G17" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E122" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E150" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>Hidden_1_Tabla_4928694</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="37" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4867,12 +7692,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4884,23 +7709,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4910,10 +7737,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,45 +7750,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>314001</v>
+      <c r="B4" s="12">
+        <v>515001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>216001</v>
+      <c r="B5" s="12">
+        <v>569001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>336001</v>
+      <c r="B6" s="12">
+        <v>567001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
+        <v>531001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>331002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
+        <v>253001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <v>291001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>254001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12">
+        <v>217001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12">
+        <v>294001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12">
+        <v>246002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>255001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12">
+        <v>353001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12">
+        <v>246001</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +7891,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,33 +7919,33 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
         <v>335</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>336</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>337</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5046,27 +7963,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5084,12 +8001,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5107,12 +8024,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5130,132 +8047,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5273,207 +8190,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5491,162 +8408,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5664,17 +8581,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
